--- a/result/tangsel/Analisis_Beban_Kerja_Tangsel.xlsx
+++ b/result/tangsel/Analisis_Beban_Kerja_Tangsel.xlsx
@@ -539,19 +539,19 @@
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>915</v>
@@ -583,28 +583,28 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>63.24</v>
+        <v>62.55</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
@@ -630,25 +630,25 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>63.66</v>
+        <v>62.55</v>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
@@ -671,28 +671,28 @@
         </is>
       </c>
       <c r="D5" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>924</v>
+        <v>900</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>63.72</v>
+        <v>62.07</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
@@ -715,28 +715,28 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>82</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>62.55</v>
+        <v>63.03</v>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
@@ -759,28 +759,28 @@
         </is>
       </c>
       <c r="D7" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>1450</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>64.06999999999999</v>
+        <v>63.24</v>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>

--- a/result/tangsel/Analisis_Beban_Kerja_Tangsel.xlsx
+++ b/result/tangsel/Analisis_Beban_Kerja_Tangsel.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,7 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="18.8" customWidth="1" min="11" max="11"/>
     <col width="11.6" customWidth="1" min="12" max="12"/>
+    <col width="9.199999999999999" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -523,6 +524,11 @@
           <t>Kategori</t>
         </is>
       </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Urutan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -567,6 +573,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M2" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -611,6 +620,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M3" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -655,6 +667,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M4" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -699,6 +714,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M5" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -743,6 +761,9 @@
           <t>Netral</t>
         </is>
       </c>
+      <c r="M6" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -786,6 +807,9 @@
         <is>
           <t>Netral</t>
         </is>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
